--- a/data/trans_orig/Q02G_FES-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q02G_FES-Habitat-trans_orig.xlsx
@@ -631,22 +631,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>1.900175121681474</v>
+        <v>1.902355025637597</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>2.794952444717431</v>
+        <v>2.905055044713988</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2.190549486286678</v>
+        <v>2.219114072668495</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>3.198322253677466</v>
+        <v>3.215592483685139</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>2.352704564320615</v>
+        <v>2.305714611843735</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>3.343916534684026</v>
+        <v>3.422355134741072</v>
       </c>
     </row>
     <row r="6">
@@ -657,22 +657,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>7.300805567316696</v>
+        <v>7.002077022099792</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>6.610548941527751</v>
+        <v>6.781216668430071</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.912044763099903</v>
+        <v>3.869045827846492</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>5.491575110094366</v>
+        <v>5.634979139924345</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>3.863400074143763</v>
+        <v>3.955521379513147</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>5.470349661983937</v>
+        <v>5.535629313548156</v>
       </c>
     </row>
     <row r="7">
@@ -713,22 +713,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>3.349334967529458</v>
+        <v>3.386877007854348</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>1.882736913836134</v>
+        <v>2.015224450803585</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2.55271186737292</v>
+        <v>2.622795879262124</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2.39993812869248</v>
+        <v>2.442903751437196</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>3.142164129767434</v>
+        <v>3.027301983009555</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>2.491037583111828</v>
+        <v>2.459755128275837</v>
       </c>
     </row>
     <row r="9">
@@ -739,22 +739,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>6.21566235204475</v>
+        <v>6.317537685694204</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>9.388375994660199</v>
+        <v>9.292490663659398</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>5.141246627792998</v>
+        <v>5.37485673063122</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>5.167242878709048</v>
+        <v>5.427335070953159</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>5.183883077611243</v>
+        <v>5.017135197669919</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>5.306360336226742</v>
+        <v>5.180578206301108</v>
       </c>
     </row>
     <row r="10">
@@ -795,22 +795,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.5439522140513262</v>
+        <v>0.6374692602817502</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2438868242983258</v>
+        <v>0.2382668363333203</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>3.616961020517741</v>
+        <v>3.609838331373208</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>2.202774796261219</v>
+        <v>2.200013073819521</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>2.874892400006651</v>
+        <v>2.870080793561316</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>2.055060952043126</v>
+        <v>2.057986293661518</v>
       </c>
     </row>
     <row r="12">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.460891341492744</v>
+        <v>3.542850905066836</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.740397537325874</v>
+        <v>1.500078520663126</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>6.659598889755578</v>
+        <v>6.475767539424672</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>7.288108796610606</v>
+        <v>6.719633571293594</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>5.328514408846495</v>
+        <v>5.33052967112892</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>6.302265784165699</v>
+        <v>6.695250225132344</v>
       </c>
     </row>
     <row r="13">
@@ -877,22 +877,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>1.403000998706616</v>
+        <v>1.410509959023145</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>2.312963735571687</v>
+        <v>2.417924891324844</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2.499298048024087</v>
+        <v>2.534289604439477</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3.359776734657223</v>
+        <v>3.410254752769008</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>2.436515632179685</v>
+        <v>2.484635418425639</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>3.258290755838221</v>
+        <v>3.200333843026617</v>
       </c>
     </row>
     <row r="15">
@@ -903,22 +903,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>4.96466593068027</v>
+        <v>5.145938483027369</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>6.894002632559554</v>
+        <v>7.20135749521849</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>5.548581767351397</v>
+        <v>5.51038477703554</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>7.383199009565857</v>
+        <v>7.162427618916513</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>4.853097505546598</v>
+        <v>4.742477491190805</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>6.053698273158788</v>
+        <v>6.059936724565885</v>
       </c>
     </row>
     <row r="16">
@@ -959,22 +959,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>2.405346317054975</v>
+        <v>2.412773696564222</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>2.795268112285422</v>
+        <v>2.752024052531074</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3.216906898941773</v>
+        <v>3.151655764888295</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3.252274886715525</v>
+        <v>3.358518701654395</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>3.141238230985063</v>
+        <v>3.129933078074449</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>3.399239225618509</v>
+        <v>3.385085688581938</v>
       </c>
     </row>
     <row r="18">
@@ -985,22 +985,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>4.26645007367126</v>
+        <v>4.172734464791337</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>5.287417829985309</v>
+        <v>5.447516931207236</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>4.379588560005196</v>
+        <v>4.396543080993222</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>5.03596582763482</v>
+        <v>5.043968623592161</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>4.201064865147245</v>
+        <v>4.143249202453424</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>4.783503206976203</v>
+        <v>4.816247002834982</v>
       </c>
     </row>
     <row r="19">
